--- a/scenarios-examples/not ready/steel_raw/data/units/var_steel.xlsx
+++ b/scenarios-examples/not ready/steel_raw/data/units/var_steel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wajju/GitHub/BlackBlox/scenarios-examples/not ready/steel_raw/data/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09A8937-6E74-2442-9D58-5FF5253667B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC542D2C-0F70-2344-ADFC-EF19CD46F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="1440" windowWidth="28800" windowHeight="17540" tabRatio="598" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="1440" windowWidth="28800" windowHeight="17540" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple_coke" sheetId="17" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="116">
   <si>
     <t>scenario</t>
   </si>
@@ -413,12 +413,6 @@
   </si>
   <si>
     <t>GJ/t Pellet</t>
-  </si>
-  <si>
-    <t>coal coking - Birat</t>
-  </si>
-  <si>
-    <t>coke - Birat</t>
   </si>
   <si>
     <t>O2 demand</t>
@@ -582,8 +576,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -719,30 +713,30 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -1114,12 +1108,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="16">
         <v>0.77808901338313108</v>
@@ -1134,12 +1128,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="16">
         <v>0.77808901338313108</v>
@@ -1154,12 +1148,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="16">
         <v>0.77808901338313108</v>
@@ -1174,12 +1168,12 @@
         <v>0.05</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="16">
         <v>0.77808901338313108</v>
@@ -1194,12 +1188,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="16">
         <v>0.77808901338313108</v>
@@ -1214,12 +1208,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="16">
         <v>0.77808901338313108</v>
@@ -1234,12 +1228,12 @@
         <v>0.05</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="16">
         <v>0</v>
@@ -1254,12 +1248,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="16">
         <v>0</v>
@@ -1274,12 +1268,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="16">
         <v>0</v>
@@ -1294,7 +1288,7 @@
         <v>0.05</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>9</v>
@@ -1360,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>63</v>
@@ -1386,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -1397,7 +1391,7 @@
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="7">
         <v>0.72</v>
@@ -1406,13 +1400,13 @@
         <v>2.7906976744186046E-2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="16">
         <v>1.7999999999999999E-2</v>
@@ -1423,20 +1417,20 @@
     </row>
     <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="16">
         <v>2.7906976744186046E-2</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" s="16">
         <v>1.7999999999999999E-2</v>
@@ -1447,20 +1441,20 @@
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="16">
         <v>2.7906976744186046E-2</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="17">
         <v>0.5</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" s="16">
         <v>1.7999999999999999E-2</v>
@@ -1471,7 +1465,7 @@
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="7">
         <v>0.72</v>
@@ -1480,13 +1474,13 @@
         <v>2.7906976744186046E-2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
@@ -1497,20 +1491,20 @@
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="16">
         <v>2.7906976744186046E-2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="10">
         <v>0</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -1521,20 +1515,20 @@
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="16">
         <v>2.7906976744186046E-2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="17">
         <v>0.5</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
@@ -1545,7 +1539,7 @@
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="18">
         <v>0.72</v>
@@ -1554,13 +1548,13 @@
         <v>2.6100000000000002E-2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="10">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G11" s="16">
         <v>0</v>
@@ -1571,20 +1565,20 @@
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="20">
         <v>2.6100000000000002E-2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="20">
         <v>0</v>
@@ -1595,20 +1589,20 @@
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="20">
         <v>2.6100000000000002E-2</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="17">
         <v>0.5</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G13" s="20">
         <v>0</v>
@@ -1619,7 +1613,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="10">
         <v>1.2528000000000001</v>
@@ -1634,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="16">
         <v>1.3670873715304056E-2</v>
@@ -1645,7 +1639,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="10">
         <v>2.6100000000000002E-2</v>
@@ -1657,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="16">
         <v>1.3670873715304056E-2</v>
@@ -1668,7 +1662,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="10">
         <v>2.6100000000000002E-2</v>
@@ -1680,7 +1674,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="16">
         <v>1.3670873715304056E-2</v>
@@ -1691,7 +1685,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="10">
         <v>1.2528000000000001</v>
@@ -1706,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="16">
         <v>1.3670873715304056E-2</v>
@@ -1717,7 +1711,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="10">
         <v>2.6100000000000002E-2</v>
@@ -1729,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18" s="16">
         <v>1.3670873715304056E-2</v>
@@ -1740,7 +1734,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="10">
         <v>2.6100000000000002E-2</v>
@@ -1752,7 +1746,7 @@
         <v>0.5</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" s="16">
         <v>1.3670873715304056E-2</v>
@@ -1862,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="16">
         <v>5.7292307692307691E-2</v>
@@ -1874,7 +1868,7 @@
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="22">
         <v>0.05</v>
@@ -1886,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="16">
         <v>7.5240000000000001E-2</v>
@@ -1898,7 +1892,7 @@
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="16">
         <v>0.05</v>
@@ -1910,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" s="16">
         <v>7.5240000000000001E-2</v>
@@ -1922,7 +1916,7 @@
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="16">
         <v>0.05</v>
@@ -1934,7 +1928,7 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" s="16">
         <v>7.5240000000000001E-2</v>
@@ -1946,7 +1940,7 @@
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="22">
         <v>0.05</v>
@@ -1958,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="16">
         <v>6.0232000000000008E-2</v>
@@ -1970,7 +1964,7 @@
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="16">
         <v>0.05</v>
@@ -1982,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="16">
         <v>6.0232000000000008E-2</v>
@@ -1994,7 +1988,7 @@
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="16">
         <v>0.05</v>
@@ -2006,7 +2000,7 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="16">
         <v>6.0232000000000008E-2</v>
@@ -2018,19 +2012,19 @@
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="22">
         <v>0.05</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="16">
         <v>0</v>
@@ -2042,19 +2036,19 @@
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="16">
         <v>0.05</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="16">
         <v>0</v>
@@ -2066,19 +2060,19 @@
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="16">
         <v>0.05</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="17">
         <v>0.5</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="16">
         <v>0</v>
@@ -2169,11 +2163,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9:C10"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2208,16 +2202,16 @@
         <v>18</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>112</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>31</v>
@@ -2244,13 +2238,13 @@
         <v>17</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>59</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>2</v>
@@ -2270,7 +2264,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="10" t="s">
@@ -2351,25 +2345,25 @@
         <v>0.30560000000000004</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="K4" s="10">
         <v>0</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M4" s="9">
         <v>0.187</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O4" s="10">
         <v>0</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -2378,7 +2372,7 @@
     </row>
     <row r="5" spans="1:20" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="16">
         <v>1.1201000000000001</v>
@@ -2411,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M5" s="9">
         <v>0.152</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O5" s="10">
         <v>0</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
@@ -2434,7 +2428,7 @@
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="16">
         <v>1.1201000000000001</v>
@@ -2467,19 +2461,19 @@
         <v>0</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M6" s="9">
         <v>0.152</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O6" s="17">
         <v>1</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -2490,7 +2484,7 @@
     </row>
     <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="16">
         <v>1.1201000000000001</v>
@@ -2523,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M7" s="9">
         <v>0.152</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O7" s="17">
         <v>1</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -2546,7 +2540,7 @@
     </row>
     <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="16">
         <v>1.0960000000000001</v>
@@ -2579,19 +2573,19 @@
         <v>0</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M8" s="9">
         <v>0.152</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O8" s="17">
         <v>0</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -2602,7 +2596,7 @@
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="16">
         <v>1.0960000000000001</v>
@@ -2635,19 +2629,19 @@
         <v>0</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M9" s="9">
         <v>0.152</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O9" s="17">
         <v>1</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -2658,7 +2652,7 @@
     </row>
     <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="16">
         <v>1.0960000000000001</v>
@@ -2691,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M10" s="9">
         <v>0.152</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O10" s="17">
         <v>1</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -2714,7 +2708,7 @@
     </row>
     <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -2747,19 +2741,19 @@
         <v>0</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M11" s="9">
         <v>0.61</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O11" s="10">
         <v>0</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="16">
         <v>8.5888069956277322E-3</v>
@@ -2774,7 +2768,7 @@
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
@@ -2807,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M12" s="9">
         <v>0.61</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O12" s="17">
         <v>0.2</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -2830,7 +2824,7 @@
     </row>
     <row r="13" spans="1:20" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
@@ -2863,19 +2857,19 @@
         <v>0</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M13" s="9">
         <v>0.61</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O13" s="17">
         <v>0.45</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -3067,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>44</v>
@@ -3076,7 +3070,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>4</v>
@@ -3108,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>45</v>
@@ -3135,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="10"/>
@@ -3175,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="10">
         <v>0</v>
@@ -3188,7 +3182,7 @@
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="28">
         <v>1.0908</v>
@@ -3212,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J5" s="16">
         <v>7.6113972839595104E-2</v>
@@ -3227,7 +3221,7 @@
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="16">
         <v>1.0908</v>
@@ -3251,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="16">
         <v>7.6113972839595104E-2</v>
@@ -3266,7 +3260,7 @@
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="16">
         <v>1.0908</v>
@@ -3290,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J7" s="16">
         <v>7.6113972839595104E-2</v>
@@ -3305,7 +3299,7 @@
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="28">
         <v>1.0908</v>
@@ -3329,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J8" s="16">
         <v>7.6113972839595104E-2</v>
@@ -3344,7 +3338,7 @@
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="16">
         <v>1.0908</v>
@@ -3368,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" s="16">
         <v>7.6113972839595104E-2</v>
@@ -3383,7 +3377,7 @@
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="16">
         <v>1.0908</v>
@@ -3407,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J10" s="16">
         <v>7.6113972839595104E-2</v>
@@ -3422,7 +3416,7 @@
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="20">
         <v>1.0908</v>
@@ -3446,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J11" s="16">
         <v>7.6113972839595104E-2</v>
@@ -3461,7 +3455,7 @@
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="16">
         <v>1.0908</v>
@@ -3485,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J12" s="16">
         <v>7.6113972839595104E-2</v>
@@ -3500,7 +3494,7 @@
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="16">
         <v>1.0908</v>
@@ -3524,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J13" s="16">
         <v>7.6113972839595104E-2</v>
@@ -3682,7 +3676,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>10</v>
@@ -3699,22 +3693,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3731,7 +3725,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="9">
         <v>1.63544536271809</v>
@@ -3749,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H5" s="10">
         <v>0</v>
@@ -3757,7 +3751,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="9">
         <v>1.63544536271809</v>
@@ -3775,7 +3769,7 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
@@ -3783,7 +3777,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="9">
         <v>1.63544536271809</v>
@@ -3801,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
@@ -3809,7 +3803,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="9">
         <v>1.3327800000000001</v>
@@ -3827,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H8" s="10">
         <v>0.22842009458374227</v>
@@ -3835,7 +3829,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="9">
         <v>1.3327800000000001</v>
@@ -3853,7 +3847,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H9" s="10">
         <v>0.22842009458374227</v>
@@ -3861,7 +3855,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="9">
         <v>1.3327800000000001</v>
@@ -3879,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H10" s="10">
         <v>0.22842009458374227</v>
@@ -3924,7 +3918,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>20</v>
@@ -3936,10 +3930,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>60</v>
@@ -3948,7 +3942,7 @@
         <v>61</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3962,22 +3956,22 @@
         <v>56</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>62</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4008,7 +4002,7 @@
         <v>0.3</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="10">
         <v>1.1000000000000001</v>
@@ -4025,7 +4019,7 @@
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -4043,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5" s="10">
         <v>1.1000000000000001</v>
@@ -4060,7 +4054,7 @@
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -4078,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="10">
         <v>1.1000000000000001</v>
@@ -4095,7 +4089,7 @@
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -4113,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" s="10">
         <v>1.1000000000000001</v>
@@ -4130,7 +4124,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="21">
         <v>0</v>
@@ -4148,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="10">
         <v>0.19</v>
@@ -4165,7 +4159,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="21">
         <v>0</v>
@@ -4183,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H9" s="10">
         <v>0.19</v>
@@ -4200,7 +4194,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="21">
         <v>0</v>
@@ -4218,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="10">
         <v>0.19</v>
@@ -4235,7 +4229,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="21">
         <v>0</v>
@@ -4253,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H11" s="10">
         <v>0.19</v>
@@ -4270,7 +4264,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B12" s="21">
         <v>0</v>
@@ -4288,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" s="10">
         <v>0.19</v>
@@ -4305,7 +4299,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="21">
         <v>0</v>
@@ -4323,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" s="10">
         <v>0.19</v>
@@ -4340,7 +4334,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" s="21">
         <v>0</v>
@@ -4375,7 +4369,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" s="21">
         <v>0</v>
@@ -4419,7 +4413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -4437,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>8</v>
@@ -4449,7 +4443,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4460,7 +4454,7 @@
         <v>46</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4475,7 +4469,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4490,12 +4484,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="16">
         <v>9.7078540198090469E-3</v>
@@ -4510,12 +4504,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="16">
         <v>9.7078540198090469E-3</v>
@@ -4530,12 +4524,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4550,12 +4544,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4570,12 +4564,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4590,12 +4584,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4610,12 +4604,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4630,12 +4624,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4650,12 +4644,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4670,12 +4664,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4690,12 +4684,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4710,12 +4704,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4730,12 +4724,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4750,12 +4744,12 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="29">
         <v>9.7078540198090469E-3</v>
@@ -4770,7 +4764,7 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios-examples/not ready/steel_raw/data/units/var_steel.xlsx
+++ b/scenarios-examples/not ready/steel_raw/data/units/var_steel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wajju/GitHub/BlackBlox/scenarios-examples/not ready/steel_raw/data/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC542D2C-0F70-2344-ADFC-EF19CD46F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6246C1-E938-9E4E-A209-9BDF9809764F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="1440" windowWidth="28800" windowHeight="17540" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="1440" windowWidth="28800" windowHeight="17540" tabRatio="598" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple_coke" sheetId="17" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="116">
   <si>
     <t>scenario</t>
   </si>
@@ -2163,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3036,7 +3036,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3177,7 +3177,9 @@
       <c r="K4" s="9">
         <v>0</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="16">
+        <v>7.4236530739716242E-2</v>
+      </c>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3647,7 +3649,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3721,7 +3723,27 @@
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="B4" s="9">
+        <v>1.63544536271809</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.46799999999999997</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -4413,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4466,6 +4488,21 @@
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="29">
+        <v>9.7078540198090469E-3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.50615999999999994</v>
+      </c>
+      <c r="D4" s="30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
